--- a/data/trans_orig/Q20C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3921</v>
+        <v>4049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1680187558530461</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6751882902188585</v>
+        <v>0.69713794100557</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>2807</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6025</v>
+        <v>6461</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2529899316248304</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07901742002693846</v>
+        <v>0.07949845609896727</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5430090100937883</v>
+        <v>0.5822767159662731</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3783</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7655</v>
+        <v>7678</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2237965609027198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05819434442090657</v>
+        <v>0.05679697793958435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4528580275327078</v>
+        <v>0.4542391422128926</v>
       </c>
     </row>
     <row r="5">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4480</v>
+        <v>3616</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07858364831424051</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4037233636555476</v>
+        <v>0.32586669706073</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4435</v>
+        <v>4828</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05158482715993359</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2623760421450598</v>
+        <v>0.2856392308687149</v>
       </c>
     </row>
     <row r="6">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4856</v>
+        <v>4877</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3456647541237987</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8360176714245267</v>
+        <v>0.8397642699788109</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6008</v>
+        <v>5932</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1187593230415687</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3554023486066863</v>
+        <v>0.3508994170101715</v>
       </c>
     </row>
     <row r="7">
@@ -944,7 +944,7 @@
         <v>888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4823</v>
+        <v>4818</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4863164900231552</v>
@@ -953,7 +953,7 @@
         <v>0.1528798925115732</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8304034438295843</v>
+        <v>0.8295930944555996</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -962,19 +962,19 @@
         <v>7417</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4037</v>
+        <v>3812</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10133</v>
+        <v>9354</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6684264200609291</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3638663347443327</v>
+        <v>0.3435307504115557</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9131952865776519</v>
+        <v>0.8430135325220844</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -983,19 +983,19 @@
         <v>10241</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6388</v>
+        <v>5609</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13960</v>
+        <v>13981</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6058592888957778</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3779076099713651</v>
+        <v>0.3318330172589085</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8258615842145</v>
+        <v>0.8270547151009645</v>
       </c>
     </row>
     <row r="8">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4974</v>
+        <v>4033</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.109671776721129</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5513857020003508</v>
+        <v>0.4470311210489048</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4928</v>
+        <v>4028</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06246390366687377</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3111081983005769</v>
+        <v>0.2543055192854841</v>
       </c>
     </row>
     <row r="10">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4906</v>
+        <v>4899</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2842175775662333</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7194937800247587</v>
+        <v>0.7185886297445794</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1171,19 +1171,19 @@
         <v>2958</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6061</v>
+        <v>6024</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3279043027533894</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1034053308105028</v>
+        <v>0.1037437563303339</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.671880027594622</v>
+        <v>0.6677244490923021</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1192,19 +1192,19 @@
         <v>4896</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8954</v>
+        <v>8918</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3090994886211672</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1217090154597318</v>
+        <v>0.12179216745646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5653198121888096</v>
+        <v>0.5630310625504037</v>
       </c>
     </row>
     <row r="11">
@@ -1221,19 +1221,19 @@
         <v>2970</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5838</v>
+        <v>5811</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4355817568656851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1340089546010062</v>
+        <v>0.1313534766209347</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8562298793744073</v>
+        <v>0.8522772706651763</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4977</v>
+        <v>4981</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2150120072908286</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.551741746207104</v>
+        <v>0.5521692099758158</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1263,19 +1263,19 @@
         <v>4909</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1893</v>
+        <v>1848</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8939</v>
+        <v>8869</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3099555656870393</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1194886569839435</v>
+        <v>0.1166915539338615</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5643650306321011</v>
+        <v>0.559976655272134</v>
       </c>
     </row>
     <row r="12">
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4895</v>
+        <v>4886</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2802006655680816</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7179638167627499</v>
+        <v>0.7165631808831222</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1313,19 +1313,19 @@
         <v>3134</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6236</v>
+        <v>7075</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.347411913234653</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1118997204398216</v>
+        <v>0.1110144095842903</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.691289744764561</v>
+        <v>0.7842552885662111</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1334,19 +1334,19 @@
         <v>5044</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1826</v>
+        <v>2010</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9128</v>
+        <v>9259</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3184810420249197</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1152796000628235</v>
+        <v>0.1269035211509613</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5762849101022416</v>
+        <v>0.5845859424650044</v>
       </c>
     </row>
     <row r="13">
@@ -1438,19 +1438,19 @@
         <v>3484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6801</v>
+        <v>6725</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4094301426286427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1177751997547502</v>
+        <v>0.1176406668866317</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7992914271250775</v>
+        <v>0.7903799609031653</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1459,19 +1459,19 @@
         <v>3881</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7860</v>
+        <v>7982</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2317491550816819</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05960859060480088</v>
+        <v>0.05985872466926905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4693961573495109</v>
+        <v>0.4766534701172343</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1480,19 +1480,19 @@
         <v>7364</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3540</v>
+        <v>3654</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12722</v>
+        <v>12841</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2916152542507692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1401813959109694</v>
+        <v>0.1447067628686487</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5037505522196442</v>
+        <v>0.5084795284241601</v>
       </c>
     </row>
     <row r="15">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4791</v>
+        <v>4394</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1222930314058576</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5631044506759065</v>
+        <v>0.5163733671669326</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5632</v>
+        <v>5808</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1139563868190202</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3363132096331368</v>
+        <v>0.3468589357602832</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1551,19 +1551,19 @@
         <v>2949</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>911</v>
+        <v>938</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7308</v>
+        <v>7351</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1167652545457438</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03605553773459422</v>
+        <v>0.03714340576244466</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2893797278270677</v>
+        <v>0.2910633950065001</v>
       </c>
     </row>
     <row r="16">
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5244</v>
+        <v>5454</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2346445469665438</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6163032454107028</v>
+        <v>0.6409112276349153</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5152</v>
+        <v>5927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09572910902647179</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3076822140195818</v>
+        <v>0.3539605295213412</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1622,19 +1622,19 @@
         <v>3600</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8436</v>
+        <v>8184</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1425339219591979</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0366880173090908</v>
+        <v>0.03628209907455606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3340541654629806</v>
+        <v>0.324074862648776</v>
       </c>
     </row>
     <row r="17">
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5392</v>
+        <v>5388</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2336322789989559</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6336873624424143</v>
+        <v>0.6331704849057249</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1672,19 +1672,19 @@
         <v>9353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5743</v>
+        <v>5573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13270</v>
+        <v>13229</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5585653490728261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3429574213469594</v>
+        <v>0.3328357010668714</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7925023048850508</v>
+        <v>0.7900272428507779</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1693,19 +1693,19 @@
         <v>11341</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6665</v>
+        <v>6597</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16549</v>
+        <v>16602</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4490855692442892</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2639140613101518</v>
+        <v>0.2612342453203418</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6553070880707099</v>
+        <v>0.6574153828078946</v>
       </c>
     </row>
     <row r="18">
@@ -1797,19 +1797,19 @@
         <v>4410</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7902</v>
+        <v>7904</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3621481087483501</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1433940056494706</v>
+        <v>0.1429222847975947</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.648911307465292</v>
+        <v>0.6490557639586524</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4475</v>
+        <v>5093</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08338136074721104</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3683484387164139</v>
+        <v>0.4191474730054153</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1839,19 +1839,19 @@
         <v>5423</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1871</v>
+        <v>1918</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9997</v>
+        <v>10217</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2229211288979983</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07690515887135353</v>
+        <v>0.07885988154005329</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4109441993340041</v>
+        <v>0.419977563787258</v>
       </c>
     </row>
     <row r="20">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3417</v>
+        <v>4244</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06957044021086652</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.28059748440238</v>
+        <v>0.3485431258500593</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1889,19 +1889,19 @@
         <v>4757</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1821</v>
+        <v>1777</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8637</v>
+        <v>8777</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3915324551453224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1498401539706896</v>
+        <v>0.1462193033477251</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7108812340920544</v>
+        <v>0.7224083758964691</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1910,19 +1910,19 @@
         <v>5604</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2690</v>
+        <v>1981</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10602</v>
+        <v>10492</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2303708200527083</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.110559387753957</v>
+        <v>0.08141455562478944</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4358129494117121</v>
+        <v>0.4312880968531516</v>
       </c>
     </row>
     <row r="21">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3738</v>
+        <v>3444</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06934307782143646</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.30695559094139</v>
+        <v>0.2828399458735289</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5087</v>
+        <v>4921</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08028906307581156</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4186708573629017</v>
+        <v>0.4050180881595954</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5684</v>
+        <v>5742</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07480992951512161</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2336701460338668</v>
+        <v>0.2360236511761474</v>
       </c>
     </row>
     <row r="22">
@@ -2010,19 +2010,19 @@
         <v>6076</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2584</v>
+        <v>2649</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8786</v>
+        <v>9510</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4989383732193469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2122349956702101</v>
+        <v>0.2175364108707024</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7215109305375648</v>
+        <v>0.7809697006557141</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2031,19 +2031,19 @@
         <v>5404</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2173</v>
+        <v>2164</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8522</v>
+        <v>9023</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.444797121031655</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1788689595912738</v>
+        <v>0.1781178881567272</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7013829781233217</v>
+        <v>0.7426662756178231</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2052,19 +2052,19 @@
         <v>11480</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6877</v>
+        <v>6880</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16233</v>
+        <v>16273</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4718981215341718</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2827100826979813</v>
+        <v>0.2828225634762486</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6672789091233032</v>
+        <v>0.6689157739345699</v>
       </c>
     </row>
     <row r="23">
@@ -2156,19 +2156,19 @@
         <v>8870</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2662610094263413</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -2177,19 +2177,19 @@
         <v>8690</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1773090782634331</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -2198,19 +2198,19 @@
         <v>17560</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2133025384103329</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
     </row>
     <row r="25">
@@ -2227,19 +2227,19 @@
         <v>3826</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>959</v>
+        <v>995</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8088</v>
+        <v>8599</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1148394599023754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02879666249462089</v>
+        <v>0.02986460200530949</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2427979413746257</v>
+        <v>0.2581469714718018</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -2248,19 +2248,19 @@
         <v>10495</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5612</v>
+        <v>5744</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16950</v>
+        <v>16230</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2141366276093082</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1145064184447785</v>
+        <v>0.1171997327500351</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3458221935930584</v>
+        <v>0.3311382252029786</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2269,19 +2269,19 @@
         <v>14321</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8605</v>
+        <v>8522</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21686</v>
+        <v>21583</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.173957076678436</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1045215575360742</v>
+        <v>0.1035194389042259</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2634211474162651</v>
+        <v>0.2621731078008193</v>
       </c>
     </row>
     <row r="26">
@@ -2298,19 +2298,19 @@
         <v>7818</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3976</v>
+        <v>3825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13436</v>
+        <v>13118</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2346977693506905</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1193664147939</v>
+        <v>0.1148196215680411</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4033333122359573</v>
+        <v>0.3937948721674372</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2319,19 +2319,19 @@
         <v>4518</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1798</v>
+        <v>1696</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9147</v>
+        <v>10168</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0921835903943046</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03668452049170678</v>
+        <v>0.03459530586391395</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1866204114835412</v>
+        <v>0.2074576914533448</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2340,19 +2340,19 @@
         <v>12336</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6870</v>
+        <v>7426</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19971</v>
+        <v>19933</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1498504488151793</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08345230003986091</v>
+        <v>0.09019960610724559</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2425861544335825</v>
+        <v>0.2421308604350181</v>
       </c>
     </row>
     <row r="27">
@@ -2369,19 +2369,19 @@
         <v>12799</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7866</v>
+        <v>8040</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18795</v>
+        <v>18259</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3842017613205927</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2361283563301741</v>
+        <v>0.2413465017351882</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5642112530473179</v>
+        <v>0.5481109888688576</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>26</v>
@@ -2390,19 +2390,19 @@
         <v>25309</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>18771</v>
+        <v>18573</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32196</v>
+        <v>31991</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.516370703732954</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3829729654161865</v>
+        <v>0.3789406508093999</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.656887928652059</v>
+        <v>0.6526956968062866</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>40</v>
@@ -2411,19 +2411,19 @@
         <v>38107</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29879</v>
+        <v>29656</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>47328</v>
+        <v>46867</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4628899360960518</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3629484324119337</v>
+        <v>0.3602303177427729</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5748999209868203</v>
+        <v>0.569293510753857</v>
       </c>
     </row>
     <row r="28">
@@ -2755,19 +2755,19 @@
         <v>4949</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1949</v>
+        <v>1988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9251</v>
+        <v>8989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.334522187393501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1317099016728596</v>
+        <v>0.1343847055605952</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6253340938843904</v>
+        <v>0.6075949974116557</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6215</v>
+        <v>6138</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1084975421782524</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.330090000776911</v>
+        <v>0.3260157510785045</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2797,19 +2797,19 @@
         <v>6992</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3095</v>
+        <v>2945</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13117</v>
+        <v>12452</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2079530173214593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09204601418441415</v>
+        <v>0.08758199652504325</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3901335065553624</v>
+        <v>0.3703480535819622</v>
       </c>
     </row>
     <row r="5">
@@ -2826,19 +2826,19 @@
         <v>4517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1735</v>
+        <v>1678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8664</v>
+        <v>8558</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3052931943694928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1172747425006129</v>
+        <v>0.113443642819302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5856325765757521</v>
+        <v>0.5784809850683957</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -2847,19 +2847,19 @@
         <v>3038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7221</v>
+        <v>8123</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1613803459727768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05008875461718576</v>
+        <v>0.05018354721092787</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3835679734916745</v>
+        <v>0.4314699952639292</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -2868,19 +2868,19 @@
         <v>7555</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3120</v>
+        <v>3699</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12518</v>
+        <v>12952</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2247049480438348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0927876083320677</v>
+        <v>0.1100310881245793</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3723234879782901</v>
+        <v>0.3852382765904165</v>
       </c>
     </row>
     <row r="6">
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3897</v>
+        <v>3820</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06209199387980634</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2634022902484494</v>
+        <v>0.2582367589415483</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -2918,19 +2918,19 @@
         <v>6400</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3046</v>
+        <v>2187</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10774</v>
+        <v>10739</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3399506711645875</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1618029341393685</v>
+        <v>0.1161659371199256</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5722834917772609</v>
+        <v>0.5703871261025286</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -2939,19 +2939,19 @@
         <v>7319</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3259</v>
+        <v>3162</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13512</v>
+        <v>13366</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2176871598306626</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09692484199103719</v>
+        <v>0.09404628063478945</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4018865867868292</v>
+        <v>0.3975249065497833</v>
       </c>
     </row>
     <row r="7">
@@ -2968,19 +2968,19 @@
         <v>4410</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1176</v>
+        <v>1146</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8609</v>
+        <v>8417</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2980926243571999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07949063601319686</v>
+        <v>0.0774721906853046</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5819259734289424</v>
+        <v>0.5689195239504232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2989,19 +2989,19 @@
         <v>7346</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4014</v>
+        <v>3623</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12423</v>
+        <v>11643</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3901714406843833</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2131940480504899</v>
+        <v>0.1924138133274114</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6598467358242983</v>
+        <v>0.6184113152153674</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -3010,19 +3010,19 @@
         <v>11756</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6421</v>
+        <v>6526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17244</v>
+        <v>17726</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3496548748040432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.190986093664869</v>
+        <v>0.1941059862337873</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.512886633076481</v>
+        <v>0.5272268053462549</v>
       </c>
     </row>
     <row r="8">
@@ -3114,19 +3114,19 @@
         <v>5508</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2010</v>
+        <v>2072</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10069</v>
+        <v>9598</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3693723291708114</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1347979660988358</v>
+        <v>0.1389668712666661</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6752483515983387</v>
+        <v>0.643653314152986</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -3135,19 +3135,19 @@
         <v>9468</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4527</v>
+        <v>5038</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15342</v>
+        <v>15343</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3697122906289733</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1767866384739317</v>
+        <v>0.1967117875035864</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5990791592608172</v>
+        <v>0.5991274659933624</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -3156,19 +3156,19 @@
         <v>14975</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8667</v>
+        <v>8701</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22686</v>
+        <v>21784</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3695871877862694</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2139080198297312</v>
+        <v>0.2147480095334154</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.559893736386192</v>
+        <v>0.5376306171404458</v>
       </c>
     </row>
     <row r="10">
@@ -3198,19 +3198,19 @@
         <v>6478</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12342</v>
+        <v>13068</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2529721494429117</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09401735564393958</v>
+        <v>0.09418664387840589</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4819309286270114</v>
+        <v>0.5103071596071468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3219,19 +3219,19 @@
         <v>6478</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2595</v>
+        <v>2417</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13414</v>
+        <v>14319</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1598806113864284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06404790296876266</v>
+        <v>0.05965376209939299</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3310533839315511</v>
+        <v>0.3533862025563062</v>
       </c>
     </row>
     <row r="11">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6241</v>
+        <v>6519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1356750476354663</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4185832064624163</v>
+        <v>0.4371643447496016</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3269,19 +3269,19 @@
         <v>3065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7185</v>
+        <v>7527</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1196976869931013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0</v>
+        <v>0.03694397696817361</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2805824665890954</v>
+        <v>0.2939214074784293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -3290,19 +3290,19 @@
         <v>5088</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10538</v>
+        <v>10546</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1255772159434474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04839065433885782</v>
+        <v>0.04842054233652612</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2600708500196034</v>
+        <v>0.2602706186490763</v>
       </c>
     </row>
     <row r="12">
@@ -3319,19 +3319,19 @@
         <v>7380</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3453</v>
+        <v>3351</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11683</v>
+        <v>11472</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4949526231937222</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2315667761628952</v>
+        <v>0.224758772262198</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.783540419570513</v>
+        <v>0.7693961815737854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -3340,19 +3340,19 @@
         <v>6597</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2358</v>
+        <v>2293</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11727</v>
+        <v>12622</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2576178729350138</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09209647322570669</v>
+        <v>0.08953646920206382</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4579171435992049</v>
+        <v>0.4928910571354502</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -3361,19 +3361,19 @@
         <v>13977</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7800</v>
+        <v>7843</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21398</v>
+        <v>21607</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3449549848838548</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1925027497366854</v>
+        <v>0.1935574200559708</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5280930039293257</v>
+        <v>0.5332626438676226</v>
       </c>
     </row>
     <row r="13">
@@ -3478,19 +3478,19 @@
         <v>5313</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2036</v>
+        <v>1887</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10151</v>
+        <v>9999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3069776303529386</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1176275113062145</v>
+        <v>0.1090151303489619</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5865025502892935</v>
+        <v>0.5777102025624873</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -3499,19 +3499,19 @@
         <v>5313</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11066</v>
+        <v>11417</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1644679527107871</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06165079029667499</v>
+        <v>0.06192784295563247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3425553160129831</v>
+        <v>0.3534194199947455</v>
       </c>
     </row>
     <row r="15">
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8153</v>
+        <v>9078</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.151281491164204</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.543660029367211</v>
+        <v>0.6053435910688737</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5883</v>
+        <v>5754</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.123919808052377</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.339915150946598</v>
+        <v>0.3324562993582058</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -3570,19 +3570,19 @@
         <v>4413</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1063</v>
+        <v>1080</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11280</v>
+        <v>11678</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1366220516508113</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03289383268990353</v>
+        <v>0.03343715030646258</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3491961197172023</v>
+        <v>0.3615106910899436</v>
       </c>
     </row>
     <row r="16">
@@ -3599,19 +3599,19 @@
         <v>7774</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2884</v>
+        <v>2833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11879</v>
+        <v>12371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5183713402741851</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1923073498124921</v>
+        <v>0.1889189591172341</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7920741918343719</v>
+        <v>0.8249115022627166</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5629</v>
+        <v>6017</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1203313396265238</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3252303351599848</v>
+        <v>0.3476510728126317</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -3641,19 +3641,19 @@
         <v>9856</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4830</v>
+        <v>4645</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16692</v>
+        <v>16518</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3051153322443655</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1495085989786641</v>
+        <v>0.1437930996961984</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5167285657609693</v>
+        <v>0.5113404844894202</v>
       </c>
     </row>
     <row r="17">
@@ -3670,19 +3670,19 @@
         <v>4954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1653</v>
+        <v>1752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9519</v>
+        <v>10087</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3303471685616109</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1102170509001909</v>
+        <v>0.1167953649934145</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6347246465783885</v>
+        <v>0.672575776949062</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3691,19 +3691,19 @@
         <v>7767</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3692</v>
+        <v>3720</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12639</v>
+        <v>12787</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4487712219681607</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2132868515120886</v>
+        <v>0.2149544710022597</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7302323746190056</v>
+        <v>0.7387808511746033</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -3712,19 +3712,19 @@
         <v>12721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6731</v>
+        <v>7232</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19260</v>
+        <v>19717</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.393794663394036</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2083593415024556</v>
+        <v>0.2238605262827265</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5962067771209283</v>
+        <v>0.6103521083162314</v>
       </c>
     </row>
     <row r="18">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4091</v>
+        <v>4081</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06629511686069092</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.271288986425188</v>
+        <v>0.2706043359563532</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3837,19 +3837,19 @@
         <v>5138</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9670</v>
+        <v>10081</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.264618192724032</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1030110777742779</v>
+        <v>0.1037527035228546</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4979901011865365</v>
+        <v>0.5191424722501147</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3858,19 +3858,19 @@
         <v>6138</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2196</v>
+        <v>2874</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11259</v>
+        <v>12273</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1779274942682464</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06365651756340458</v>
+        <v>0.08329699376334118</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3263626890738892</v>
+        <v>0.3557521540801145</v>
       </c>
     </row>
     <row r="20">
@@ -3887,19 +3887,19 @@
         <v>5252</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2069</v>
+        <v>2048</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9362</v>
+        <v>9284</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3483066756468256</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1371831719981448</v>
+        <v>0.135780277951642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6208354068758861</v>
+        <v>0.6156392238730581</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6261</v>
+        <v>6199</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1047652223221841</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3224273160732971</v>
+        <v>0.3192511947794132</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -3929,19 +3929,19 @@
         <v>7287</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3080</v>
+        <v>3106</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12813</v>
+        <v>12894</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2112217130746698</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08927199935448051</v>
+        <v>0.09002330732778192</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3714194114883421</v>
+        <v>0.3737641155377361</v>
       </c>
     </row>
     <row r="21">
@@ -3958,19 +3958,19 @@
         <v>3816</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>946</v>
+        <v>960</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7803</v>
+        <v>7788</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2530323730498756</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06271365325484496</v>
+        <v>0.06365003748740868</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5174395983900123</v>
+        <v>0.5164339464734747</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -3979,19 +3979,19 @@
         <v>5096</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1902</v>
+        <v>1919</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9471</v>
+        <v>9510</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.262416877606479</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09793946054528797</v>
+        <v>0.09882789449533878</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4877497162977211</v>
+        <v>0.4897592379283366</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -4000,19 +4000,19 @@
         <v>8911</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4835</v>
+        <v>4795</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15119</v>
+        <v>15104</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.258314736435403</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1401541633641335</v>
+        <v>0.1389898294918792</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4382637131791435</v>
+        <v>0.4378319700432462</v>
       </c>
     </row>
     <row r="22">
@@ -4029,19 +4029,19 @@
         <v>5012</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1952</v>
+        <v>1869</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8936</v>
+        <v>8982</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3323658344426079</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1294734460240366</v>
+        <v>0.1239151017118646</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5925486214615134</v>
+        <v>0.5956276443372351</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4050,19 +4050,19 @@
         <v>7150</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3247</v>
+        <v>3208</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12057</v>
+        <v>11525</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3681997073473048</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1672041670857868</v>
+        <v>0.1652270937985735</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6209212525319736</v>
+        <v>0.5935165039788585</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4071,19 +4071,19 @@
         <v>12162</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7144</v>
+        <v>7162</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18103</v>
+        <v>18120</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3525360562216809</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2070774179158415</v>
+        <v>0.2075925596291696</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5247428133578995</v>
+        <v>0.5252354642834982</v>
       </c>
     </row>
     <row r="23">
@@ -4175,19 +4175,19 @@
         <v>11456</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1916361606190051</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -4196,19 +4196,19 @@
         <v>21962</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2705951630438409</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>31</v>
@@ -4217,19 +4217,19 @@
         <v>33418</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2371044853565009</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
     </row>
     <row r="25">
@@ -4246,19 +4246,19 @@
         <v>12038</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6142</v>
+        <v>6643</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20992</v>
+        <v>20326</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2013614805036091</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1027388711361396</v>
+        <v>0.1111163000117257</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3511463788282029</v>
+        <v>0.3400026821494214</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -4267,19 +4267,19 @@
         <v>13696</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7407</v>
+        <v>7752</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21578</v>
+        <v>23601</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1687459166457902</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09126334073806378</v>
+        <v>0.09551827591261187</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2658615296898084</v>
+        <v>0.2907900810602665</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -4288,19 +4288,19 @@
         <v>25733</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15757</v>
+        <v>17421</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35452</v>
+        <v>36812</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1825798976132282</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1117986805110251</v>
+        <v>0.1236036437059721</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2515336523254374</v>
+        <v>0.2611863402213895</v>
       </c>
     </row>
     <row r="26">
@@ -4317,19 +4317,19 @@
         <v>14531</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8632</v>
+        <v>8263</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23382</v>
+        <v>22828</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2430720952674582</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1443955488283878</v>
+        <v>0.1382132963373464</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3911287456569332</v>
+        <v>0.3818475070601625</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -4338,19 +4338,19 @@
         <v>16644</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10061</v>
+        <v>10317</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25113</v>
+        <v>24967</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2050718790851661</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1239666462973481</v>
+        <v>0.1271215994720374</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3094135783742408</v>
+        <v>0.3076231626781035</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -4359,19 +4359,19 @@
         <v>31175</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22050</v>
+        <v>21552</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42500</v>
+        <v>41394</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2211897751214271</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1564454232484497</v>
+        <v>0.1529097803214305</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3015390627752443</v>
+        <v>0.293693631342288</v>
       </c>
     </row>
     <row r="27">
@@ -4388,19 +4388,19 @@
         <v>21756</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14499</v>
+        <v>14675</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30125</v>
+        <v>29132</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3639302636099276</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2425261498991175</v>
+        <v>0.2454722081250846</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5039156645964727</v>
+        <v>0.4873113167141803</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>26</v>
@@ -4409,19 +4409,19 @@
         <v>28860</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20504</v>
+        <v>20494</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>38034</v>
+        <v>38066</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3555870412252027</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2526362011552905</v>
+        <v>0.2525013051844198</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4686184580266811</v>
+        <v>0.4690087097683295</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>46</v>
@@ -4430,19 +4430,19 @@
         <v>50616</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>38675</v>
+        <v>40024</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>61951</v>
+        <v>63457</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3591258419088438</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2743995213441205</v>
+        <v>0.2839718456373725</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4395441361941764</v>
+        <v>0.4502306160816868</v>
       </c>
     </row>
     <row r="28">
@@ -4774,19 +4774,19 @@
         <v>4265</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9079</v>
+        <v>8327</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2443581539728959</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06300456081949203</v>
+        <v>0.06368666782463826</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5201774537192019</v>
+        <v>0.4771097267787421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4795,19 +4795,19 @@
         <v>2850</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6430</v>
+        <v>6848</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2213912248805033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.06667508689563169</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4994960483078213</v>
+        <v>0.5319900796075949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4816,19 +4816,19 @@
         <v>7114</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2931</v>
+        <v>2956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12774</v>
+        <v>12707</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.234609418228868</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09666141186213496</v>
+        <v>0.09749479102802866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4212580703031207</v>
+        <v>0.4190496737886923</v>
       </c>
     </row>
     <row r="5">
@@ -4845,19 +4845,19 @@
         <v>3762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8372</v>
+        <v>9393</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2155779727187479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05838381956541658</v>
+        <v>0.05931670871321212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4797011778287797</v>
+        <v>0.5381912243505304</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6777</v>
+        <v>6444</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1740999319611146</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5264899727922178</v>
+        <v>0.5006077082795999</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -4887,19 +4887,19 @@
         <v>6003</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2249</v>
+        <v>2264</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11632</v>
+        <v>11952</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1979718549439463</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07416470579933358</v>
+        <v>0.07466834099887458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.383589235151354</v>
+        <v>0.39415510038229</v>
       </c>
     </row>
     <row r="6">
@@ -4916,19 +4916,19 @@
         <v>6489</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2914</v>
+        <v>3074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11151</v>
+        <v>11019</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3717891678069858</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.166943114112596</v>
+        <v>0.1761152234418364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6389151295049849</v>
+        <v>0.6313400041679593</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -4937,19 +4937,19 @@
         <v>3278</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>827</v>
+        <v>794</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7617</v>
+        <v>7539</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2546624285375478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06421434889798271</v>
+        <v>0.06167776096645702</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5917564355379382</v>
+        <v>0.5856638934191345</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -4958,19 +4958,19 @@
         <v>9767</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5043</v>
+        <v>5229</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15366</v>
+        <v>15454</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3220725676858311</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1662924996540981</v>
+        <v>0.1724470435184995</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5067242168489747</v>
+        <v>0.5096457275041939</v>
       </c>
     </row>
     <row r="7">
@@ -4987,19 +4987,19 @@
         <v>2937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>759</v>
+        <v>813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6646</v>
+        <v>7145</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1682747055013703</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04350084993741028</v>
+        <v>0.04657441783637616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3807765776216</v>
+        <v>0.4093750215667245</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5008,19 +5008,19 @@
         <v>4503</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1178</v>
+        <v>1278</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8403</v>
+        <v>8445</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3498464146208342</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09150319135472296</v>
+        <v>0.09930094393039232</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6528439485265884</v>
+        <v>0.6561008979319765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -5029,19 +5029,19 @@
         <v>7440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3303</v>
+        <v>3273</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13454</v>
+        <v>13314</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2453461591413546</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1089229534645368</v>
+        <v>0.1079418753321606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4436743558487659</v>
+        <v>0.4390638434558292</v>
       </c>
     </row>
     <row r="8">
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6174</v>
+        <v>5394</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1856727515684557</v>
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5472302907519255</v>
+        <v>0.4780842586601919</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -5154,19 +5154,19 @@
         <v>4163</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1076</v>
+        <v>1022</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8561</v>
+        <v>8001</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3069133578515858</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07935691246035376</v>
+        <v>0.0753382718202894</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6311659841106224</v>
+        <v>0.5898588178351653</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -5175,19 +5175,19 @@
         <v>6258</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2193</v>
+        <v>2127</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11734</v>
+        <v>11565</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2518575794208384</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08826826635292523</v>
+        <v>0.08561794068667969</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4722477111117494</v>
+        <v>0.4654436203566631</v>
       </c>
     </row>
     <row r="10">
@@ -5204,19 +5204,19 @@
         <v>4110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1009</v>
+        <v>1082</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7592</v>
+        <v>7652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3642316734999747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0893965569014445</v>
+        <v>0.09591548337398603</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6728620330150716</v>
+        <v>0.6781787117560928</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7059</v>
+        <v>6714</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1670697883213202</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5204559684039742</v>
+        <v>0.4950084341412369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -5246,19 +5246,19 @@
         <v>6376</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2844</v>
+        <v>2809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11748</v>
+        <v>11795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2566016819513743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1144529438048914</v>
+        <v>0.1130391010051158</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.472807107817371</v>
+        <v>0.4746704117723984</v>
       </c>
     </row>
     <row r="11">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6082</v>
+        <v>5538</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1815567120137722</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5390226457492548</v>
+        <v>0.4908090686095081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6536</v>
+        <v>6548</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08244553055023869</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2630412135909242</v>
+        <v>0.2635213220825323</v>
       </c>
     </row>
     <row r="12">
@@ -5338,19 +5338,19 @@
         <v>3030</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6202</v>
+        <v>7102</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2685388629177974</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08410311242805932</v>
+        <v>0.08473754429074587</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5496378892334051</v>
+        <v>0.6294342094630296</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -5359,19 +5359,19 @@
         <v>7135</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3041</v>
+        <v>3505</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10721</v>
+        <v>10960</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5260168538270941</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2241643019411143</v>
+        <v>0.258429110600333</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7903897959886907</v>
+        <v>0.8080347007618489</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -5380,19 +5380,19 @@
         <v>10165</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5317</v>
+        <v>5071</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15546</v>
+        <v>15783</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4090952080775487</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2139920993837645</v>
+        <v>0.2040649232107805</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6256616423628575</v>
+        <v>0.6351652660874629</v>
       </c>
     </row>
     <row r="13">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7668</v>
+        <v>6742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1744043665434673</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6744514226864077</v>
+        <v>0.5930284550260683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -5505,19 +5505,19 @@
         <v>2973</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6567</v>
+        <v>6921</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2313531278159685</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06761202723184512</v>
+        <v>0.06737717614536505</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.511081005069731</v>
+        <v>0.5385626587720902</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -5526,19 +5526,19 @@
         <v>4956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1923</v>
+        <v>1049</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11752</v>
+        <v>11020</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2046206279906114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07940633934980082</v>
+        <v>0.0433301445632082</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4852307193917694</v>
+        <v>0.4550332210818745</v>
       </c>
     </row>
     <row r="15">
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4879</v>
+        <v>5790</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09957921747270213</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4291240363508156</v>
+        <v>0.5093163768983888</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -5576,19 +5576,19 @@
         <v>5187</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1329</v>
+        <v>1683</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9443</v>
+        <v>9190</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4036407878480449</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.103427527222993</v>
+        <v>0.1309581735384032</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7348319540872639</v>
+        <v>0.7151571822707998</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -5597,19 +5597,19 @@
         <v>6319</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2277</v>
+        <v>2336</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11958</v>
+        <v>12222</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2609102754482681</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09400454563937725</v>
+        <v>0.09646176145736719</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4937642531755165</v>
+        <v>0.5046625402756001</v>
       </c>
     </row>
     <row r="16">
@@ -5626,19 +5626,19 @@
         <v>4772</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1235</v>
+        <v>1167</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8957</v>
+        <v>8955</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4197068792128986</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1086674085600517</v>
+        <v>0.1026166372073414</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7878422581490124</v>
+        <v>0.7876334531103714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5647,19 +5647,19 @@
         <v>3608</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>972</v>
+        <v>931</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8367</v>
+        <v>8372</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2807406111735815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07566448744747549</v>
+        <v>0.07243558171767607</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6511113413038976</v>
+        <v>0.6515522785148454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -5668,19 +5668,19 @@
         <v>8379</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3688</v>
+        <v>3332</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14093</v>
+        <v>13640</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3459732106732548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.152297155208412</v>
+        <v>0.137596584913932</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5819187582697901</v>
+        <v>0.56320198273555</v>
       </c>
     </row>
     <row r="17">
@@ -5697,19 +5697,19 @@
         <v>3482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7714</v>
+        <v>7681</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3063095367709319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08803130483832865</v>
+        <v>0.08300229091587469</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6785310458193793</v>
+        <v>0.6755698621659058</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4790</v>
+        <v>4659</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08426547316240507</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3727846318171517</v>
+        <v>0.3625352157660438</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -5739,19 +5739,19 @@
         <v>4565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1232</v>
+        <v>1343</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10161</v>
+        <v>9816</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1884958858878657</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05086491531831167</v>
+        <v>0.05544957742961597</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4195568727385346</v>
+        <v>0.4052953848478226</v>
       </c>
     </row>
     <row r="18">
@@ -5843,19 +5843,19 @@
         <v>2800</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6526</v>
+        <v>6390</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2506040590390101</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07079247817331276</v>
+        <v>0.06914105681225186</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5841306941690125</v>
+        <v>0.5718815907418182</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5864,19 +5864,19 @@
         <v>6033</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2137</v>
+        <v>2644</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10816</v>
+        <v>10825</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2878011878572328</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1019419677418133</v>
+        <v>0.1261297109970003</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5159805304355909</v>
+        <v>0.5164145626265892</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -5885,19 +5885,19 @@
         <v>8833</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4454</v>
+        <v>4499</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14565</v>
+        <v>15070</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2748678939390399</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1386164273426037</v>
+        <v>0.1399913084969064</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4532321592207746</v>
+        <v>0.4689677407327153</v>
       </c>
     </row>
     <row r="20">
@@ -5914,19 +5914,19 @@
         <v>2931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>774</v>
+        <v>798</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6715</v>
+        <v>6527</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2623173068418239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06929479731242549</v>
+        <v>0.07139100403634099</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6009874499897331</v>
+        <v>0.5841452821323929</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -5935,19 +5935,19 @@
         <v>6479</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2828</v>
+        <v>2768</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12201</v>
+        <v>11403</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3090737822886089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.13488887599786</v>
+        <v>0.1320293073061917</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5820377925047082</v>
+        <v>0.5439670890713738</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -5956,19 +5956,19 @@
         <v>9410</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5165</v>
+        <v>4836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15954</v>
+        <v>15478</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2928167415237907</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1607377982312786</v>
+        <v>0.150495298524768</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4964778151801033</v>
+        <v>0.4816405261133824</v>
       </c>
     </row>
     <row r="21">
@@ -5985,19 +5985,19 @@
         <v>3497</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>888</v>
+        <v>806</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6619</v>
+        <v>6528</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3129883449233541</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07948765102355911</v>
+        <v>0.07210604601140963</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5924094841127906</v>
+        <v>0.5842816669592663</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4505</v>
+        <v>5132</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04399782796685344</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2148994258946024</v>
+        <v>0.2448187215213141</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -6027,19 +6027,19 @@
         <v>4419</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1719</v>
+        <v>1683</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9520</v>
+        <v>9251</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1375247621021774</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0534781411470698</v>
+        <v>0.05235966776521535</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2962655767948853</v>
+        <v>0.2878781839899595</v>
       </c>
     </row>
     <row r="22">
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5482</v>
+        <v>4989</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1740902891958118</v>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4906722556897476</v>
+        <v>0.4465509305170436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6077,19 +6077,19 @@
         <v>7528</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3198</v>
+        <v>3313</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12914</v>
+        <v>13096</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3591272018873049</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1525715170423333</v>
+        <v>0.1580278339094768</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6160729792611189</v>
+        <v>0.6247360729155575</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -6098,19 +6098,19 @@
         <v>9473</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4478</v>
+        <v>4365</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15644</v>
+        <v>15283</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.294790602434992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1393548177244703</v>
+        <v>0.1358372664725574</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.486815055658974</v>
+        <v>0.4755986807784433</v>
       </c>
     </row>
     <row r="23">
@@ -6202,19 +6202,19 @@
         <v>11143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2172964112123894</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -6223,19 +6223,19 @@
         <v>16019</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2658760691545864</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -6244,19 +6244,19 @@
         <v>27161</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2435398874559074</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
     </row>
     <row r="25">
@@ -6273,19 +6273,19 @@
         <v>11935</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6304</v>
+        <v>6613</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18412</v>
+        <v>19200</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.23275448846921</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1229440762911188</v>
+        <v>0.1289615671436667</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3590606284697368</v>
+        <v>0.3744344376262063</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -6294,19 +6294,19 @@
         <v>16173</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9840</v>
+        <v>9176</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23857</v>
+        <v>24439</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2684369287759531</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1633327660682641</v>
+        <v>0.1523084286620429</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3959838822041974</v>
+        <v>0.4056449623830334</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -6315,19 +6315,19 @@
         <v>28108</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18972</v>
+        <v>19033</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39416</v>
+        <v>37695</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2520306899528635</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1701070923579905</v>
+        <v>0.1706562993984858</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3534227672544126</v>
+        <v>0.3379896443118315</v>
       </c>
     </row>
     <row r="26">
@@ -6344,19 +6344,19 @@
         <v>16806</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10344</v>
+        <v>11003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23899</v>
+        <v>24480</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3277412144159592</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2017311679717394</v>
+        <v>0.2145784971320333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4660652107263029</v>
+        <v>0.4774061113641611</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -6365,19 +6365,19 @@
         <v>7808</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3685</v>
+        <v>3349</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14784</v>
+        <v>14330</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1295947119649372</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06117203124708093</v>
+        <v>0.0555911974146631</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2453861725676109</v>
+        <v>0.2378581348709499</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -6386,19 +6386,19 @@
         <v>24614</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16575</v>
+        <v>16743</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34344</v>
+        <v>34628</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2206994349946858</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.148620151021357</v>
+        <v>0.1501227713356597</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3079444143033644</v>
+        <v>0.3104927979965185</v>
       </c>
     </row>
     <row r="27">
@@ -6415,19 +6415,19 @@
         <v>11394</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6244</v>
+        <v>6729</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18263</v>
+        <v>19019</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2222078859024415</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1217616446266111</v>
+        <v>0.1312187417655112</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3561632901393209</v>
+        <v>0.3708904150432137</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -6436,19 +6436,19 @@
         <v>20249</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>12876</v>
+        <v>13473</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>29529</v>
+        <v>29510</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3360922901045232</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2137159796555611</v>
+        <v>0.2236271009900762</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4901169203267113</v>
+        <v>0.4898009245130661</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>28</v>
@@ -6457,19 +6457,19 @@
         <v>31644</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>22572</v>
+        <v>21908</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>42915</v>
+        <v>43130</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2837299875965433</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.202393983081814</v>
+        <v>0.1964343607774975</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3847918042513971</v>
+        <v>0.3867246231885978</v>
       </c>
     </row>
     <row r="28">
@@ -6801,19 +6801,19 @@
         <v>2097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5144</v>
+        <v>4804</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1453327570376112</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03480384305605009</v>
+        <v>0.03113278004100263</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3565873143761743</v>
+        <v>0.3329769731089378</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -6822,19 +6822,19 @@
         <v>2930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1032</v>
+        <v>904</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6084</v>
+        <v>5987</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2329182405583446</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08206884902361408</v>
+        <v>0.07189338764129048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4836104454981097</v>
+        <v>0.4758804539851407</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -6843,19 +6843,19 @@
         <v>5027</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2277</v>
+        <v>2423</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9047</v>
+        <v>9195</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1861301216686153</v>
+        <v>0.1861301216686154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08429805658046478</v>
+        <v>0.08971338469503484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3350075931716697</v>
+        <v>0.340469631178391</v>
       </c>
     </row>
     <row r="5">
@@ -6872,19 +6872,19 @@
         <v>2707</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>856</v>
+        <v>881</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6055</v>
+        <v>5730</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1876068684362761</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05935842698460093</v>
+        <v>0.06104590390681749</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.419706124050336</v>
+        <v>0.3971862550751997</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -6893,19 +6893,19 @@
         <v>2581</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>582</v>
+        <v>753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5809</v>
+        <v>5690</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2051463322433123</v>
+        <v>0.2051463322433122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04624954526357516</v>
+        <v>0.05987050509596361</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4617853569211619</v>
+        <v>0.452331727849669</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -6914,19 +6914,19 @@
         <v>5287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2551</v>
+        <v>2669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9500</v>
+        <v>10049</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1957767599708541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09446579615225766</v>
+        <v>0.09882683204603765</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3517738781891174</v>
+        <v>0.3721163499178911</v>
       </c>
     </row>
     <row r="6">
@@ -6943,19 +6943,19 @@
         <v>3863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>808</v>
+        <v>960</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9186</v>
+        <v>9440</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2677566362822209</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05599626948766844</v>
+        <v>0.06651812547986638</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6367267295299115</v>
+        <v>0.6543181235034563</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -6964,19 +6964,19 @@
         <v>1693</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4586</v>
+        <v>4565</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1345574973796462</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03659374439167688</v>
+        <v>0.03507717425449888</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3645512503021003</v>
+        <v>0.3628845116299575</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -6985,19 +6985,19 @@
         <v>5555</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2134</v>
+        <v>2117</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12214</v>
+        <v>12223</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2057124068060232</v>
+        <v>0.2057124068060233</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07901799498187996</v>
+        <v>0.0783877102197152</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4522633717361308</v>
+        <v>0.4526142074148248</v>
       </c>
     </row>
     <row r="7">
@@ -7014,19 +7014,19 @@
         <v>5761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1884</v>
+        <v>2136</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9563</v>
+        <v>9580</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3993037382438918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1306005725163622</v>
+        <v>0.1480297176544737</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6628208025648694</v>
+        <v>0.66405409980609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -7035,19 +7035,19 @@
         <v>5376</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2577</v>
+        <v>2451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9120</v>
+        <v>8988</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.427377929818697</v>
+        <v>0.4273779298186968</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.204866565209536</v>
+        <v>0.1947963662512749</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7249669331550382</v>
+        <v>0.7144825473545311</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -7056,19 +7056,19 @@
         <v>11137</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6639</v>
+        <v>6365</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16553</v>
+        <v>16071</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4123807115545073</v>
+        <v>0.4123807115545075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2458212662994935</v>
+        <v>0.2356951275840597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6129318583055204</v>
+        <v>0.5951004516565953</v>
       </c>
     </row>
     <row r="8">
@@ -7160,19 +7160,19 @@
         <v>6363</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2612</v>
+        <v>2636</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10495</v>
+        <v>10417</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4422813322189739</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1815574772393624</v>
+        <v>0.1832283318306537</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7295069197853106</v>
+        <v>0.7241383608191213</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1981</v>
+        <v>2583</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03940289828005973</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1673135894730724</v>
+        <v>0.2181387142183397</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -7202,19 +7202,19 @@
         <v>6829</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3234</v>
+        <v>2594</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12335</v>
+        <v>12477</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2603893226415074</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1232985479057092</v>
+        <v>0.09891343199563479</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4703232973561269</v>
+        <v>0.4757619664244506</v>
       </c>
     </row>
     <row r="10">
@@ -7244,19 +7244,19 @@
         <v>3937</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1839</v>
+        <v>1907</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6913</v>
+        <v>7228</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3324887683190445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1552878439793293</v>
+        <v>0.1610565670326439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5837945622351486</v>
+        <v>0.6104625094915201</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -7265,19 +7265,19 @@
         <v>3937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1715</v>
+        <v>1523</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7593</v>
+        <v>7300</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1501124039830273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06539616078622601</v>
+        <v>0.05807098503507643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2895172163039747</v>
+        <v>0.2783359697930557</v>
       </c>
     </row>
     <row r="11">
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6367</v>
+        <v>6092</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1397607827741648</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4425977704493129</v>
+        <v>0.423440211822642</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3801</v>
+        <v>3672</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1032234962437238</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3210306374750175</v>
+        <v>0.3100730479136525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -7336,19 +7336,19 @@
         <v>3233</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>786</v>
+        <v>943</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7476</v>
+        <v>7478</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1232648874576702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.029965401430271</v>
+        <v>0.03595216364899238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2850691769297714</v>
+        <v>0.2851465731070442</v>
       </c>
     </row>
     <row r="12">
@@ -7365,19 +7365,19 @@
         <v>6013</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2640</v>
+        <v>2565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10171</v>
+        <v>9834</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4179578850068613</v>
+        <v>0.4179578850068614</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1835441716087021</v>
+        <v>0.1782856500132508</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7069807036494604</v>
+        <v>0.6835627121721967</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -7386,19 +7386,19 @@
         <v>6215</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3522</v>
+        <v>3320</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8744</v>
+        <v>8614</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5248848371571719</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2974239298892055</v>
+        <v>0.2803664008091777</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7384395991910255</v>
+        <v>0.7274984422335899</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -7407,19 +7407,19 @@
         <v>12227</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7553</v>
+        <v>7862</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17124</v>
+        <v>16707</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.466233385917795</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2879899441371583</v>
+        <v>0.2997693046774983</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6529297838531519</v>
+        <v>0.6370300081298991</v>
       </c>
     </row>
     <row r="13">
@@ -7514,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6370</v>
+        <v>6706</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1476962488529229</v>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4122926594575007</v>
+        <v>0.4340036233598314</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -7532,19 +7532,19 @@
         <v>3276</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1296</v>
+        <v>1146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5739</v>
+        <v>6033</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3567145079529166</v>
+        <v>0.3567145079529168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1410908512708683</v>
+        <v>0.1247442633152215</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6248377445194288</v>
+        <v>0.6568997211249245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -7553,19 +7553,19 @@
         <v>5558</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2237</v>
+        <v>2335</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9949</v>
+        <v>10116</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2256167388756085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09078889112696278</v>
+        <v>0.09476599015466873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4038496641749519</v>
+        <v>0.4106294205335632</v>
       </c>
     </row>
     <row r="15">
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4135</v>
+        <v>4914</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06082140811280078</v>
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2676127533629004</v>
+        <v>0.3180227284710294</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -7606,16 +7606,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3652</v>
+        <v>3748</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1514434802652379</v>
+        <v>0.151443480265238</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3976561071226988</v>
+        <v>0.408105282161064</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -7624,19 +7624,19 @@
         <v>2331</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6398</v>
+        <v>6164</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09460465891296629</v>
+        <v>0.09460465891296631</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02721886132873787</v>
+        <v>0.02699175151590801</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2597185385507659</v>
+        <v>0.2502068730948983</v>
       </c>
     </row>
     <row r="16">
@@ -7653,19 +7653,19 @@
         <v>4311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8683</v>
+        <v>8030</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.278987519413387</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07034398514597752</v>
+        <v>0.06941156428977459</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5619845242808368</v>
+        <v>0.519705753459889</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>4311</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1159</v>
+        <v>1173</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8743</v>
+        <v>9551</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1749829969543955</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04704232871913346</v>
+        <v>0.04759995577721495</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3548959632249455</v>
+        <v>0.387704516761737</v>
       </c>
     </row>
     <row r="17">
@@ -7716,19 +7716,19 @@
         <v>7919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3509</v>
+        <v>3577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11858</v>
+        <v>11988</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5124948236208893</v>
+        <v>0.5124948236208892</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2271280941159141</v>
+        <v>0.2314983562997626</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7674759268263375</v>
+        <v>0.7758899036562201</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -7737,19 +7737,19 @@
         <v>4517</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2154</v>
+        <v>2118</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7105</v>
+        <v>7110</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4918420117818453</v>
+        <v>0.4918420117818454</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2345419245743435</v>
+        <v>0.2305650711278202</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7736182017424935</v>
+        <v>0.7741580020800815</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -7758,19 +7758,19 @@
         <v>12436</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7991</v>
+        <v>7827</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17296</v>
+        <v>17096</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5047956052570298</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3243606152826973</v>
+        <v>0.3177209817759072</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.702095920045206</v>
+        <v>0.6939643295703195</v>
       </c>
     </row>
     <row r="18">
@@ -7862,19 +7862,19 @@
         <v>7033</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3658</v>
+        <v>3494</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11162</v>
+        <v>11019</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3844639263624244</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2000034675284832</v>
+        <v>0.1910086706195311</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6102328386034845</v>
+        <v>0.6024182368938761</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -7883,19 +7883,19 @@
         <v>3599</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1586</v>
+        <v>1509</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7042</v>
+        <v>7475</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2073440509835761</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.091339264338911</v>
+        <v>0.0869409821476336</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4056571275047507</v>
+        <v>0.4305805796251532</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -7904,19 +7904,19 @@
         <v>10632</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6418</v>
+        <v>6484</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15480</v>
+        <v>15908</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2982173268057139</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1800252168350081</v>
+        <v>0.1818814652880943</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4341915420713272</v>
+        <v>0.446213638603732</v>
       </c>
     </row>
     <row r="20">
@@ -7933,19 +7933,19 @@
         <v>4370</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1792</v>
+        <v>1639</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8210</v>
+        <v>7982</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2389113242062978</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09795097689420278</v>
+        <v>0.0895761703032643</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4488500214369828</v>
+        <v>0.4363750335020218</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -7954,19 +7954,19 @@
         <v>3817</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1405</v>
+        <v>1448</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7138</v>
+        <v>7134</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2198911196638821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08092269877255187</v>
+        <v>0.08341129643400257</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4111601896921814</v>
+        <v>0.4109196710018239</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -7975,19 +7975,19 @@
         <v>8187</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4884</v>
+        <v>4642</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13235</v>
+        <v>12756</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2296496421892589</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1369858634414909</v>
+        <v>0.1301984891465589</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3712183884702897</v>
+        <v>0.3577884005217509</v>
       </c>
     </row>
     <row r="21">
@@ -8004,19 +8004,19 @@
         <v>3520</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1542</v>
+        <v>1220</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7334</v>
+        <v>6761</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1924247514508662</v>
+        <v>0.1924247514508663</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08427252150768481</v>
+        <v>0.06669694930064966</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4009610521869276</v>
+        <v>0.3696359973117065</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -8025,19 +8025,19 @@
         <v>3752</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1442</v>
+        <v>1613</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7287</v>
+        <v>7053</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2161034472706386</v>
+        <v>0.2161034472706385</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08304051453656783</v>
+        <v>0.09293724768316221</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4197430025457368</v>
+        <v>0.4062961677695754</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -8046,19 +8046,19 @@
         <v>7271</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4007</v>
+        <v>3817</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11598</v>
+        <v>12459</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2039548351979607</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1123906994694153</v>
+        <v>0.1070636440015145</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3253021449678398</v>
+        <v>0.3494489644729358</v>
       </c>
     </row>
     <row r="22">
@@ -8075,19 +8075,19 @@
         <v>3369</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1174</v>
+        <v>1205</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6681</v>
+        <v>6898</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1841999979804115</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06418298421396106</v>
+        <v>0.06589262826434979</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3652627823116312</v>
+        <v>0.3770836211296955</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -8096,19 +8096,19 @@
         <v>6192</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3343</v>
+        <v>3204</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9774</v>
+        <v>9480</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3566613820819032</v>
+        <v>0.3566613820819031</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1925800454599319</v>
+        <v>0.1845496779686497</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5630404102428582</v>
+        <v>0.5460547538341659</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -8117,19 +8117,19 @@
         <v>9561</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5870</v>
+        <v>5320</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14195</v>
+        <v>14513</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2681781958070664</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1646602986671797</v>
+        <v>0.1492150103700907</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3981447908943819</v>
+        <v>0.4070718932531598</v>
       </c>
     </row>
     <row r="23">
@@ -8221,19 +8221,19 @@
         <v>17774</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2841288729539838</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -8242,19 +8242,19 @@
         <v>10272</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6418</v>
+        <v>6033</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15885</v>
+        <v>15335</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.201554708459332</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1259375241777167</v>
+        <v>0.1183727587952329</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3116889990458611</v>
+        <v>0.3009081665139041</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -8263,19 +8263,19 @@
         <v>28046</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20581</v>
+        <v>21152</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>37637</v>
+        <v>37333</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2470574150554286</v>
+        <v>0.2470574150554285</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1813013118799221</v>
+        <v>0.186328504813216</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3315481902648355</v>
+        <v>0.3288637809110352</v>
       </c>
     </row>
     <row r="25">
@@ -8292,19 +8292,19 @@
         <v>8016</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4210</v>
+        <v>4262</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13129</v>
+        <v>13395</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1281490925580644</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06730696440904869</v>
+        <v>0.06812498961226618</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2098775160481076</v>
+        <v>0.2141248268481726</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -8313,19 +8313,19 @@
         <v>11726</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7679</v>
+        <v>7399</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17030</v>
+        <v>17095</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2300776049064704</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1506799097551065</v>
+        <v>0.145183204213255</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3341501379838434</v>
+        <v>0.3354293066234409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -8334,19 +8334,19 @@
         <v>19742</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13517</v>
+        <v>13253</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26744</v>
+        <v>26508</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1739096349421299</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1190689336482511</v>
+        <v>0.1167444981153046</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2355891797240329</v>
+        <v>0.2335110048061979</v>
       </c>
     </row>
     <row r="26">
@@ -8363,19 +8363,19 @@
         <v>13704</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8376</v>
+        <v>8245</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22322</v>
+        <v>21734</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2190681851255995</v>
+        <v>0.2190681851255994</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1338940329418114</v>
+        <v>0.1318036552896473</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3568331286456874</v>
+        <v>0.3474458458156275</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -8384,19 +8384,19 @@
         <v>6666</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3502</v>
+        <v>3604</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11289</v>
+        <v>11344</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1308080056171692</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06871666020925675</v>
+        <v>0.07072123567613986</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2215151793644273</v>
+        <v>0.2225976416169597</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -8405,19 +8405,19 @@
         <v>20370</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13056</v>
+        <v>13195</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29162</v>
+        <v>29946</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1794440054709858</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1150112241920789</v>
+        <v>0.1162369966735616</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2568857156313013</v>
+        <v>0.2637978035334634</v>
       </c>
     </row>
     <row r="27">
@@ -8434,19 +8434,19 @@
         <v>23061</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15873</v>
+        <v>16144</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30668</v>
+        <v>30415</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3686538493623523</v>
+        <v>0.3686538493623522</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2537379076335201</v>
+        <v>0.2580806550701801</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4902565003503206</v>
+        <v>0.4862165328051609</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>33</v>
@@ -8455,19 +8455,19 @@
         <v>22300</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16360</v>
+        <v>16785</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>28030</v>
+        <v>28417</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4375596810170284</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3210064028454681</v>
+        <v>0.329356731811026</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5500020305849848</v>
+        <v>0.5575807497922785</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>58</v>
@@ -8476,19 +8476,19 @@
         <v>45361</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>36430</v>
+        <v>35849</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>54752</v>
+        <v>54629</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3995889445314558</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3209168384313582</v>
+        <v>0.315791614805788</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4823097134194295</v>
+        <v>0.481226647687741</v>
       </c>
     </row>
     <row r="28">
